--- a/Datasets/significado_columnas.xlsx
+++ b/Datasets/significado_columnas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itco26073\georeferenciacion-avisos-ISA\documentos finales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loperatomas410/Documents/Programación/Cursos/Hackathon ISA/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{402525A2-F7CB-4408-BF90-DDD6C8A44A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0116B6DB-CC22-4BD3-A2CD-C75420AF2CE8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B95C177-2343-C34D-817F-36C0CF85C2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="141">
-  <si>
-    <t>NOMBRE DE LA COLUMNA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="140">
   <si>
     <t>SIGNIFICADO</t>
   </si>
@@ -451,6 +448,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Suma lo que hay antes de "-" en la columna "Ubicación técnica" y la torre en "Descripción de objeto técnico", si la hay. </t>
@@ -461,6 +459,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(Esta se fue creada con el objetivo de georreferenciar cada aviso)</t>
@@ -483,21 +482,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -511,6 +497,14 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -520,12 +514,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,6 +528,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -571,9 +567,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -581,12 +574,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,16 +631,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -689,10 +685,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C80B9038-61FE-4B76-A95F-4D76860A7E1C}" name="Tabla1" displayName="Tabla1" ref="A1:B38" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C80B9038-61FE-4B76-A95F-4D76860A7E1C}" name="Tabla1" displayName="Tabla1" ref="A1:B38" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:B38" xr:uid="{C80B9038-61FE-4B76-A95F-4D76860A7E1C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6E2D6EC8-5DB6-4BF8-8943-23DE57FA4D69}" name="NOMBRE DE LA COLUMNA" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{6E2D6EC8-5DB6-4BF8-8943-23DE57FA4D69}" name="Aviso" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{C30021A2-B6C1-4B49-8331-0633AE59BDF6}" name="SIGNIFICADO" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1008,564 +1004,565 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="H17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30.75">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30.75">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30.75">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30.75">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30.75">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30.75">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30.75">
-      <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30.75">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30.75">
-      <c r="A10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30.75">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30.75">
-      <c r="A14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30.75">
-      <c r="A16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="H16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30.75">
-      <c r="A17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="45.75">
-      <c r="A20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30.75">
-      <c r="A21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="45.75">
-      <c r="A22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30.75">
-      <c r="A23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30.75">
-      <c r="A26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30.75">
-      <c r="A31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30.75">
-      <c r="A32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="33" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="30.75">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="4" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="30.75">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="4" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="76.5">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="6" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="30.75">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="4" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="30.75">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>140</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
